--- a/outputs-HGR-r202/g__CAG-307.xlsx
+++ b/outputs-HGR-r202/g__CAG-307.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>s__CAG-307 sp001916215</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>s__CAG-307 sp001916215</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>s__CAG-307 sp001916215</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>s__CAG-307 sp001916215</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>s__CAG-307 sp001916215</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>s__CAG-307 sp001916215</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -603,6 +638,11 @@
         <v>0.9990225550172203</v>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>s__CAG-307 sp001916215</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>s__CAG-307 sp001916215</t>
         </is>
